--- a/data/variables_INEGALITES.xlsx
+++ b/data/variables_INEGALITES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgohel/gitprojects/cereq-dataviz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658E8B0-5B5B-4640-8FEE-BC38D1084799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63583660-E42C-4DC7-AC84-1B7A595602AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>taux_emploi</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>lieu de résidence à la fin des études</t>
+  </si>
+  <si>
+    <t>Cette information résulte d'une typologie des trajectoires construite par le Céreq par des méthodes statistiques.</t>
   </si>
 </sst>
 </file>
@@ -545,22 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7E53C1-A3F4-4B83-9932-6CA928247F49}">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="98.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="184" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -582,7 +585,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -598,7 +601,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -614,7 +617,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -632,7 +635,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -650,7 +653,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -666,7 +669,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -684,7 +687,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -700,7 +703,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -712,11 +715,13 @@
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -728,11 +733,13 @@
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -744,11 +751,13 @@
       <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -760,11 +769,13 @@
       <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -780,7 +791,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -789,7 +800,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -798,7 +809,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2</v>
       </c>
@@ -806,23 +817,25 @@
         <v>26</v>
       </c>
       <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -856,8 +869,8 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="F19" s="1"/>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -891,8 +904,8 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="F20" s="1"/>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -926,6 +939,12 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -933,15 +952,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DCE2AD71575ED409F6CD8D87660A7B5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e7a409e0b47e02996c47cd99ab55c69c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3559f96-a391-4298-a476-5fa029e2109e" xmlns:ns3="e8254419-5e3e-4d09-9ab1-694bd035361a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ec4d4004c5339e4d0b1f4fd079361e4" ns2:_="" ns3:_="">
     <xsd:import namespace="a3559f96-a391-4298-a476-5fa029e2109e"/>
@@ -1164,6 +1174,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1176,14 +1195,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC680D-B89C-4D4D-B787-C69FE927502B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1202,6 +1213,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}">
   <ds:schemaRefs>

--- a/data/variables_INEGALITES.xlsx
+++ b/data/variables_INEGALITES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63583660-E42C-4DC7-AC84-1B7A595602AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B00EFA-AFA5-462D-B5EB-3C942DDDF163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
+    <workbookView xWindow="-19320" yWindow="360" windowWidth="19440" windowHeight="15000" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>taux_emploi</t>
   </si>
   <si>
-    <t>Taux d’emploi à trois ans</t>
-  </si>
-  <si>
     <t>part_chomage</t>
   </si>
   <si>
-    <t>Proportion de sortants au chômage à trois ans</t>
-  </si>
-  <si>
     <t>taux_chomage</t>
   </si>
   <si>
-    <t>Taux de chômage à trois ans</t>
-  </si>
-  <si>
     <t>Le taux de chômage correspond à la part des  individus sans emploi et à la recherche d'un emploi parmi les actifs (individus en emploi ou au chômage)</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>revenu_travail</t>
   </si>
   <si>
-    <t xml:space="preserve">Revenu mensuel médian à trois ans </t>
-  </si>
-  <si>
     <t>Niveau de salaire ou traitement mensuel net primes incluses médian. Le revenu médian est la valeur telle que la moitié des individus de la population considérée gagne plus, l'autre moitié gagne  moins.</t>
   </si>
   <si>
@@ -89,74 +77,86 @@
     <t>Bulle</t>
   </si>
   <si>
-    <t xml:space="preserve">Proportion de sortants en emploi à durée indéterminé </t>
-  </si>
-  <si>
     <t>part_tps_partiel</t>
   </si>
   <si>
-    <t>Proportion des individus en emploi à temps partiel</t>
-  </si>
-  <si>
     <t>competence_ok</t>
   </si>
   <si>
-    <t>Proportion de sortants ayant déclaré être employés à leur niveau de compétence</t>
-  </si>
-  <si>
     <t>correspondance_ok</t>
   </si>
   <si>
-    <t>Proportion de sortants ayant déclaré une correspondance entre leur formation et l'emploi occupé</t>
-  </si>
-  <si>
     <t>libelle_menu2</t>
   </si>
   <si>
-    <t>sexe</t>
-  </si>
-  <si>
-    <t>origine sociale</t>
-  </si>
-  <si>
-    <t>ascendance migratoire</t>
-  </si>
-  <si>
     <t>traj_1</t>
   </si>
   <si>
-    <t>Proportion de sortants ayant connu un accès rapide à l’emploi durable à l'emploi à durée indéterminée</t>
-  </si>
-  <si>
     <t>traj_2</t>
   </si>
   <si>
-    <t>Proportion de sortants ayant connu un accès différé à l’emploi à durée indéterminée</t>
-  </si>
-  <si>
     <t>traj_3</t>
   </si>
   <si>
-    <t>Proportion de sortants ayant connu un accès rapide et récurrent à l’emploi à durée déterminée</t>
-  </si>
-  <si>
     <t>traj_7</t>
   </si>
   <si>
-    <t>Proportion de sortants ayant connu un chômage persistant ou récurrent</t>
-  </si>
-  <si>
-    <t>lieu de résidence à la fin des études</t>
-  </si>
-  <si>
-    <t>Cette information résulte d'une typologie des trajectoires construite par le Céreq par des méthodes statistiques.</t>
+    <t>Taux d’emploi en octobre 2020</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes au chômage en octobre 2020</t>
+  </si>
+  <si>
+    <t>Taux de chômage en octobre 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion de jeunes en emploi à durée indéterminée en octobre 2020 </t>
+  </si>
+  <si>
+    <t>Proportion des individus en emploi à temps partiel en octobre 2020</t>
+  </si>
+  <si>
+    <t>Revenu mensuel médian en octobre 2020</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes ayant connu un accès rapide à l’emploi durable à l'emploi à durée indéterminée</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes ayant connu un accès différé à l’emploi à durée indéterminée</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes ayant connu un accès rapide et récurrent à l’emploi à durée déterminée</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes ayant connu un chômage persistant ou récurrent</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes ayant déclaré une correspondance entre leur formation et l'emploi occupé en octobre 2020</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes estimant être employés à leur niveau de compétence en octobre 2020</t>
+  </si>
+  <si>
+    <t>En octobre 2020, trois années après la fin de formation initiale</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>Origine sociale</t>
+  </si>
+  <si>
+    <t>Ascendance migratoire</t>
+  </si>
+  <si>
+    <t>Lieu de résidence à la fin des études</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -234,6 +246,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +572,7 @@
   <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,22 +586,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
@@ -594,10 +615,12 @@
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
@@ -608,10 +631,10 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -624,46 +647,46 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="7"/>
@@ -676,84 +699,78 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="8"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="8"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="8"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
     </row>
@@ -764,28 +781,26 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="8"/>
@@ -805,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -814,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9"/>
       <c r="F16" s="2"/>
@@ -824,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -833,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -952,6 +967,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e8254419-5e3e-4d09-9ab1-694bd035361a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a3559f96-a391-4298-a476-5fa029e2109e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DCE2AD71575ED409F6CD8D87660A7B5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e7a409e0b47e02996c47cd99ab55c69c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3559f96-a391-4298-a476-5fa029e2109e" xmlns:ns3="e8254419-5e3e-4d09-9ab1-694bd035361a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ec4d4004c5339e4d0b1f4fd079361e4" ns2:_="" ns3:_="">
     <xsd:import namespace="a3559f96-a391-4298-a476-5fa029e2109e"/>
@@ -1174,7 +1200,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1183,18 +1209,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e8254419-5e3e-4d09-9ab1-694bd035361a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a3559f96-a391-4298-a476-5fa029e2109e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8254419-5e3e-4d09-9ab1-694bd035361a"/>
+    <ds:schemaRef ds:uri="a3559f96-a391-4298-a476-5fa029e2109e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC680D-B89C-4D4D-B787-C69FE927502B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1213,21 +1239,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8254419-5e3e-4d09-9ab1-694bd035361a"/>
-    <ds:schemaRef ds:uri="a3559f96-a391-4298-a476-5fa029e2109e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/variables_INEGALITES.xlsx
+++ b/data/variables_INEGALITES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B00EFA-AFA5-462D-B5EB-3C942DDDF163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEEB2FE-1FDA-4395-A6F8-9B35C5274B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="360" windowWidth="19440" windowHeight="15000" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Proportion de jeunes estimant être employés à leur niveau de compétence en octobre 2020</t>
   </si>
   <si>
-    <t>En octobre 2020, trois années après la fin de formation initiale</t>
-  </si>
-  <si>
     <t>Sexe</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Lieu de résidence à la fin des études</t>
+  </si>
+  <si>
+    <t>Le taux d'emploi correspond à la part des individus en emploi parmi la population totale</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7E53C1-A3F4-4B83-9932-6CA928247F49}">
   <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9"/>
       <c r="F16" s="2"/>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -848,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -967,14 +967,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e8254419-5e3e-4d09-9ab1-694bd035361a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a3559f96-a391-4298-a476-5fa029e2109e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,21 +1199,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e8254419-5e3e-4d09-9ab1-694bd035361a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a3559f96-a391-4298-a476-5fa029e2109e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8254419-5e3e-4d09-9ab1-694bd035361a"/>
-    <ds:schemaRef ds:uri="a3559f96-a391-4298-a476-5fa029e2109e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1240,9 +1237,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8254419-5e3e-4d09-9ab1-694bd035361a"/>
+    <ds:schemaRef ds:uri="a3559f96-a391-4298-a476-5fa029e2109e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/variables_INEGALITES.xlsx
+++ b/data/variables_INEGALITES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEEB2FE-1FDA-4395-A6F8-9B35C5274B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0CF8B9-4B96-4FEA-A376-3565F45E9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5A600840-11BA-4F57-88D0-42CDAF522C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>Revenu mensuel médian en octobre 2020</t>
   </si>
   <si>
-    <t>Proportion de jeunes ayant connu un accès rapide à l’emploi durable à l'emploi à durée indéterminée</t>
-  </si>
-  <si>
     <t>Proportion de jeunes ayant connu un accès différé à l’emploi à durée indéterminée</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Le taux d'emploi correspond à la part des individus en emploi parmi la population totale</t>
+  </si>
+  <si>
+    <t>Proportion de jeunes ayant connu un accès rapide et durable à l'emploi à durée indéterminée</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7E53C1-A3F4-4B83-9932-6CA928247F49}">
   <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -720,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="8"/>
@@ -736,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="8"/>
@@ -752,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="8"/>
@@ -768,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="8"/>
@@ -784,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="8"/>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9"/>
       <c r="F16" s="2"/>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -848,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -967,15 +967,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DCE2AD71575ED409F6CD8D87660A7B5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e7a409e0b47e02996c47cd99ab55c69c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3559f96-a391-4298-a476-5fa029e2109e" xmlns:ns3="e8254419-5e3e-4d09-9ab1-694bd035361a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ec4d4004c5339e4d0b1f4fd079361e4" ns2:_="" ns3:_="">
     <xsd:import namespace="a3559f96-a391-4298-a476-5fa029e2109e"/>
@@ -1198,6 +1189,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1210,14 +1210,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC680D-B89C-4D4D-B787-C69FE927502B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1236,6 +1228,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B538C3C-F996-46E4-AAD1-7C7DFF40ADFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED022754-5647-413F-8148-DC07F9B3125F}">
   <ds:schemaRefs>
